--- a/LOADSHEDDING_Stages123and4__Zone7only.xlsx
+++ b/LOADSHEDDING_Stages123and4__Zone7only.xlsx
@@ -187,6 +187,41 @@
   </si>
   <si>
     <t>Zone7: Woodstock, Greenpoint, CityBowl, Gardens, Vredehoek, Oranjezicht, CampsBay, Tamboerskloof</t>
+  </si>
+  <si>
+    <r>
+      <t>Adjust air conditioners to 23</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C or keep them off.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If there are mistakes here, please report on: </t>
+  </si>
+  <si>
+    <t>https://github.com/KarlosFanta/docs/issues</t>
+  </si>
+  <si>
+    <t>Ref: www.capetown.gov.za</t>
   </si>
   <si>
     <r>
@@ -297,43 +332,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CapeTown (Steenbras power currently under maintenance)</t>
+      <t>CapeTown Loadshedding</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Adjust air conditioners to 23</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C or keep them off.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">If there are mistakes here, please report on: </t>
-  </si>
-  <si>
-    <t>https://github.com/KarlosFanta/docs/issues</t>
-  </si>
-  <si>
-    <t>Ref: www.capetown.gov.za</t>
   </si>
 </sst>
 </file>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +859,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
